--- a/pcb/react4/led_resistors.xlsx
+++ b/pcb/react4/led_resistors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\react4\pcb\react4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{439DC96D-1788-40FC-80CD-3B7FA84C2DFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1058B0ED-4D1D-4965-ACC4-F98A3AAA436A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" xr2:uid="{0467F1CA-0C12-481B-8067-F439C5822FDB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0467F1CA-0C12-481B-8067-F439C5822FDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Volts</t>
-  </si>
-  <si>
-    <t>Current mA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>green</t>
   </si>
@@ -52,6 +46,21 @@
   </si>
   <si>
     <t>white, yellow</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -87,14 +96,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -105,6 +121,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2E1D8616-F552-4266-890C-CCAD177A6DB9}" name="Table1" displayName="Table1" ref="I11:M15" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="I11:M15" xr:uid="{72DC683A-0DB5-4CE1-AC2C-4C3D1C9A0FD8}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E761AFD5-1BB5-408A-B083-C6C0B97C0E15}" name="V"/>
+    <tableColumn id="2" xr3:uid="{0595F394-8B8A-4C6F-B03E-1C0EE903DF5E}" name="I"/>
+    <tableColumn id="3" xr3:uid="{7A03C46B-9FB4-4FE7-B34A-91D41AA91462}" name="R">
+      <calculatedColumnFormula>$I$12/J12*1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{CEFABD12-E432-4D6C-AC80-8D578F3FA23E}" name="Color"/>
+    <tableColumn id="5" xr3:uid="{83E0D10B-0CB2-4AD1-80A3-EFD0AE056B48}" name="R24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,40 +436,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3C01A1-01B8-4BE9-9B84-8E3F061D7CD5}">
-  <dimension ref="I10:M15"/>
+  <dimension ref="I11:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="9" max="11" width="7.28515625" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>3.3</v>
+    <row r="11" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I12" t="s">
-        <v>1</v>
+      <c r="I12">
+        <v>3.3</v>
       </c>
       <c r="J12">
         <v>10</v>
       </c>
       <c r="K12">
-        <f>$J$10/J12*1000</f>
+        <f>$I$12/J12*1000</f>
         <v>329.99999999999994</v>
       </c>
       <c r="L12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M12">
         <v>330</v>
@@ -448,11 +488,11 @@
         <v>16</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" ref="K13:K18" si="0">$J$10/J13*1000</f>
+        <f>$I$12/J13*1000</f>
         <v>206.25</v>
       </c>
       <c r="L13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>200</v>
@@ -463,11 +503,11 @@
         <v>5</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
+        <f>$I$12/J14*1000</f>
         <v>659.99999999999989</v>
       </c>
       <c r="L14" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>680</v>
@@ -478,11 +518,11 @@
         <v>2</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f>$I$12/J15*1000</f>
         <v>1650</v>
       </c>
       <c r="L15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M15">
         <v>1600</v>
@@ -490,5 +530,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>